--- a/results_muda.xlsx
+++ b/results_muda.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafaamohammed/Documents/GitHub/data-and-baselines/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE892EB8-E69A-B741-B0E6-08E63A4F7016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en-nl" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="en-pt" sheetId="4" r:id="rId4"/>
     <sheet name="en-ko" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="18">
   <si>
     <t>team_name</t>
   </si>
@@ -77,8 +83,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +147,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -219,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -253,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,14 +444,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -460,16 +479,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="D2">
         <v>93</v>
       </c>
       <c r="E2">
-        <v>93.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -486,7 +505,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -503,7 +522,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -520,7 +539,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -528,16 +547,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D6">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E6">
         <v>35.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -562,16 +581,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>88.59999999999999</v>
+        <v>88.6</v>
       </c>
       <c r="D9">
-        <v>86.90000000000001</v>
+        <v>86.9</v>
       </c>
       <c r="E9">
         <v>87.7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -579,16 +598,16 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="D10">
         <v>74.8</v>
       </c>
       <c r="E10">
-        <v>76.59999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -602,10 +621,10 @@
         <v>72</v>
       </c>
       <c r="E11">
-        <v>66.40000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -622,7 +641,7 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -639,7 +658,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -673,7 +692,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -684,13 +703,13 @@
         <v>50</v>
       </c>
       <c r="D17">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E17">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -704,10 +723,10 @@
         <v>41.7</v>
       </c>
       <c r="E18">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -724,7 +743,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -747,14 +766,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="87.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -785,10 +809,10 @@
         <v>94</v>
       </c>
       <c r="E2">
-        <v>93.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -805,7 +829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -813,16 +837,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="D4">
         <v>86.3</v>
       </c>
       <c r="E4">
-        <v>88.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -839,7 +863,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -847,16 +871,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="D6">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E6">
         <v>83.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -870,245 +894,296 @@
         <v>76.5</v>
       </c>
       <c r="E7">
-        <v>79.40000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>90.3</v>
+      </c>
+      <c r="D8">
+        <v>83.4</v>
+      </c>
+      <c r="E8">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="D10">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>88.9</v>
+      </c>
+      <c r="D11">
         <v>77.7</v>
       </c>
-      <c r="E10">
-        <v>82.90000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="E11">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="D11">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D12">
         <v>83.5</v>
       </c>
-      <c r="E11">
-        <v>81.90000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="E12">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
         <v>82</v>
       </c>
-      <c r="D12">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="E12">
+      <c r="D13">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E13">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D13">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="D14">
         <v>68</v>
       </c>
-      <c r="E13">
-        <v>74.09999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="E14">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
         <v>79.3</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>67</v>
       </c>
-      <c r="E14">
-        <v>72.59999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="E15">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="D15">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>82.9</v>
+      </c>
+      <c r="D16">
         <v>61.2</v>
       </c>
-      <c r="E15">
-        <v>70.40000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="E16">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>79.3</v>
+      </c>
+      <c r="D17">
+        <v>63.1</v>
+      </c>
+      <c r="E17">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>76.7</v>
-      </c>
-      <c r="D18">
-        <v>86.2</v>
-      </c>
-      <c r="E18">
-        <v>81.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>74.3</v>
-      </c>
-      <c r="D19">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="E19">
-        <v>79.09999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20">
-        <v>75.7</v>
+        <v>76.7</v>
       </c>
       <c r="D20">
-        <v>81.5</v>
+        <v>86.2</v>
       </c>
       <c r="E20">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21">
-        <v>74.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="D21">
-        <v>81.5</v>
+        <v>84.6</v>
       </c>
       <c r="E21">
-        <v>77.90000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22">
-        <v>73</v>
+        <v>75.7</v>
       </c>
       <c r="D22">
-        <v>70.8</v>
+        <v>81.5</v>
       </c>
       <c r="E22">
-        <v>71.90000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23">
-        <v>75.40000000000001</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D23">
+        <v>81.5</v>
+      </c>
+      <c r="E23">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>70.8</v>
+      </c>
+      <c r="E24">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="D25">
         <v>66.2</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>70.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>69.2</v>
+      </c>
+      <c r="E26">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1117,14 +1192,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1149,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="D2">
         <v>90.7</v>
@@ -1158,7 +1238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1255,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1183,16 +1263,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="D4">
-        <v>88.59999999999999</v>
+        <v>88.6</v>
       </c>
       <c r="E4">
-        <v>89.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1206,10 +1286,10 @@
         <v>85.5</v>
       </c>
       <c r="E5">
-        <v>86.90000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>84.90000000000001</v>
+        <v>84.9</v>
       </c>
       <c r="D6">
         <v>86.7</v>
@@ -1226,7 +1306,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1240,10 +1320,10 @@
         <v>78.8</v>
       </c>
       <c r="E7">
-        <v>84.09999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1268,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>88.09999999999999</v>
+        <v>88.1</v>
       </c>
       <c r="D10">
         <v>92.5</v>
@@ -1277,7 +1357,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1374,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1308,10 +1388,10 @@
         <v>78.3</v>
       </c>
       <c r="E12">
-        <v>82.09999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1325,10 +1405,10 @@
         <v>76.7</v>
       </c>
       <c r="E13">
-        <v>81.40000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1342,10 +1422,10 @@
         <v>76.7</v>
       </c>
       <c r="E14">
-        <v>78.59999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +1442,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1393,10 +1473,10 @@
         <v>93.8</v>
       </c>
       <c r="E18">
-        <v>92.90000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1407,13 +1487,13 @@
         <v>94.5</v>
       </c>
       <c r="D19">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="E19">
-        <v>91.90000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1424,13 +1504,13 @@
         <v>89.3</v>
       </c>
       <c r="D20">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="E20">
-        <v>88.59999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1527,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1544,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1481,7 +1561,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1506,16 +1586,16 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D26">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E26">
         <v>74.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1523,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>79.59999999999999</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="D27">
         <v>66</v>
@@ -1532,7 +1612,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1629,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1563,10 +1643,10 @@
         <v>64.5</v>
       </c>
       <c r="E29">
-        <v>68.09999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1574,7 +1654,7 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>68.09999999999999</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D30">
         <v>60.1</v>
@@ -1583,7 +1663,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1606,14 +1686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1641,13 +1721,13 @@
         <v>87.5</v>
       </c>
       <c r="D2">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="E2">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1658,13 +1738,13 @@
         <v>85.3</v>
       </c>
       <c r="D3">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E3">
         <v>82.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1672,16 +1752,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D4">
-        <v>77.09999999999999</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="E4">
         <v>78.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1689,16 +1769,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="D5">
-        <v>68.40000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="E5">
-        <v>72.59999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1795,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1740,16 +1820,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>92.09999999999999</v>
+        <v>92.1</v>
       </c>
       <c r="D9">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="E9">
         <v>95.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1766,7 +1846,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1777,13 +1857,13 @@
         <v>89.2</v>
       </c>
       <c r="D11">
-        <v>93.40000000000001</v>
+        <v>93.4</v>
       </c>
       <c r="E11">
         <v>91.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1794,13 +1874,13 @@
         <v>86.5</v>
       </c>
       <c r="D12">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="E12">
         <v>88.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1811,13 +1891,13 @@
         <v>86.2</v>
       </c>
       <c r="D13">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E13">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1848,10 +1928,10 @@
         <v>72.7</v>
       </c>
       <c r="E16">
-        <v>74.40000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1868,7 +1948,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1885,7 +1965,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1982,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1925,14 +2005,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +2029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="D2">
         <v>44.2</v>
@@ -1966,7 +2046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1983,7 +2063,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2000,7 +2080,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2097,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2131,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2065,10 +2145,10 @@
         <v>73.8</v>
       </c>
       <c r="E9">
-        <v>72.09999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2165,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2093,13 +2173,13 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="D11">
-        <v>65.09999999999999</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="E11">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
   </sheetData>
